--- a/biology/Zoologie/Euphysalozercon_berlesei/Euphysalozercon_berlesei.xlsx
+++ b/biology/Zoologie/Euphysalozercon_berlesei/Euphysalozercon_berlesei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euphysalozercon berlesei est une espèce d'acariens mesostigmates, la seule du genre Euphysalozercon et de la famille des Euphysalozerconidae. 
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Afrique du Sud. Elle a été découverte dans les fourmilières d'Anoplolepis custodiens[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Afrique du Sud. Elle a été découverte dans les fourmilières d'Anoplolepis custodiens.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1902, Erich Wasmann note l'existence d'une espèce inconnue qu'il nomme Antennophorus raffrayi sans la décrire. En 1905, Antonio Berlese sur la base des spécimens de Wasmann crée le genre Physalozercon puis en 1977 John B. Kethley crée la famille des Physalozerconidae. Basés sur une espèce non décrite ces taxons ne sont pas valables, c'est pourquoi en 2008 Cheol-Min Kim a décrit cette espèce de manière formelle.
 </t>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Kim, 2008 : Euphysalozerconidae, a new mesostigmatid mite family (Acari: Mesostigmata: Trigynaspida: Aenictequoidea). Acarologia (Paris), vol. 48, n. 1/2, p. 33-39.</t>
         </is>
